--- a/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,69%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,51</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,19; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,19; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 3,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 3,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 2,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">

--- a/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,99</t>
+          <t>0,0; 32,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,0</t>
+          <t>-15,81; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,03</t>
+          <t>0,0; 49,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,0</t>
+          <t>-15,81; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,97</t>
+          <t>0,0; 21,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,55</t>
+          <t>0,0; 15,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,03</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,83</t>
+          <t>0,0; 26,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,35</t>
+          <t>0,0; 17,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,51</t>
+          <t>0,0; 18,91</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,0</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,0</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,31</t>
+          <t>0,0; 31,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,92</t>
+          <t>0,0; 46,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 0,0</t>
+          <t>-11,54; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 0,0</t>
+          <t>-11,54; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 0,0</t>
+          <t>-7,74; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 0,0</t>
+          <t>-7,71; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 0,0</t>
+          <t>-7,74; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 0,0</t>
+          <t>-7,71; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,3</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,34</t>
+          <t>-1,22; 2,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,93</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,67</t>
+          <t>-0,32; 3,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,47</t>
+          <t>-1,23; 3,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,94</t>
+          <t>-0,5; 1,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,75</t>
+          <t>-0,34; 3,11</t>
         </is>
       </c>
     </row>
